--- a/info/Manuals/логика платы головы.xlsx
+++ b/info/Manuals/логика платы головы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\water_treatment_controller\info\Manuals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED4AC109-0DCC-4443-AAAD-5F8E3D99751B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47042080-823A-4315-A85D-3C789CB3DA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12636" yWindow="720" windowWidth="9360" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -925,104 +925,104 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1301,7 +1301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -1315,11 +1315,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.4">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
     </row>
     <row r="2" spans="1:3" ht="14.4">
       <c r="A2" t="s">
@@ -1355,23 +1355,23 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.4">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="51"/>
     </row>
     <row r="7" spans="1:3" ht="14.4">
-      <c r="A7" s="50"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
     </row>
     <row r="8" spans="1:3" ht="14.4">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
     </row>
     <row r="9" spans="1:3" ht="14.4">
       <c r="A9" s="3" t="s">
@@ -1401,15 +1401,15 @@
       <c r="A13" s="52">
         <v>0.5</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
     </row>
     <row r="15" spans="1:3" ht="14.4">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
     </row>
     <row r="16" spans="1:3" ht="14.4">
       <c r="A16" s="1" t="s">
@@ -1439,16 +1439,16 @@
       <c r="A20" s="52">
         <v>0.5</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
@@ -1478,47 +1478,47 @@
       <c r="A27" s="52">
         <v>0.5</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="29" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="51"/>
+      <c r="B30" s="53"/>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="51"/>
+      <c r="B31" s="53"/>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A32" s="50" t="s">
+      <c r="A32" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="51"/>
+      <c r="B32" s="53"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="55"/>
+      <c r="B33" s="51"/>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1">
       <c r="A34" s="52">
         <v>0.5</v>
       </c>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="36" spans="1:3" ht="15.75" customHeight="1"/>
@@ -1588,6 +1588,11 @@
     <row r="100" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A20:C20"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A8:C8"/>
@@ -1595,11 +1600,6 @@
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A20:C20"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A29:C29"/>
@@ -1613,7 +1613,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AM118"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="L79" workbookViewId="0">
+      <selection activeCell="V60" sqref="V60"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1636,40 +1638,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="14.4">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="63"/>
       <c r="N1" s="4"/>
     </row>
     <row r="2" spans="1:30" ht="14.4">
-      <c r="A2" s="69"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="70"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="65"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:30" ht="14.4">
-      <c r="A3" s="69"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="70"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="65"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:30" ht="14.4">
-      <c r="A4" s="69"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="70"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="65"/>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:30" ht="14.4">
-      <c r="A5" s="71"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="67"/>
       <c r="C5" s="67"/>
-      <c r="D5" s="65"/>
+      <c r="D5" s="68"/>
       <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:30" ht="14.4">
@@ -1682,7 +1684,7 @@
       <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:30" ht="15.6">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="83" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="57"/>
@@ -1698,7 +1700,7 @@
       <c r="L9" s="57"/>
       <c r="M9" s="58"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="74" t="s">
+      <c r="O9" s="83" t="s">
         <v>15</v>
       </c>
       <c r="P9" s="57"/>
@@ -1727,7 +1729,7 @@
       <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:30" ht="14.4">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="72" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="58"/>
@@ -1744,13 +1746,13 @@
         <v>8</v>
       </c>
       <c r="P13" s="58"/>
-      <c r="Q13" s="73" t="s">
+      <c r="Q13" s="72" t="s">
         <v>16</v>
       </c>
       <c r="R13" s="58"/>
     </row>
     <row r="14" spans="1:30" ht="14.4">
-      <c r="A14" s="75">
+      <c r="A14" s="88">
         <v>0.5</v>
       </c>
       <c r="B14" s="58"/>
@@ -1763,7 +1765,7 @@
       </c>
       <c r="F14" s="7"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="75">
+      <c r="O14" s="88">
         <v>0.5</v>
       </c>
       <c r="P14" s="58"/>
@@ -1773,51 +1775,51 @@
       <c r="R14" s="58"/>
     </row>
     <row r="15" spans="1:30" ht="14.4">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="59" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="61"/>
+      <c r="D15" s="63"/>
       <c r="E15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F15" s="7"/>
       <c r="N15" s="4"/>
-      <c r="O15" s="59" t="s">
+      <c r="O15" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="59" t="s">
+      <c r="P15" s="63"/>
+      <c r="Q15" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="R15" s="61"/>
+      <c r="R15" s="63"/>
     </row>
     <row r="16" spans="1:30" ht="14.4">
-      <c r="A16" s="69"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="70"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="65"/>
       <c r="F16" s="8"/>
       <c r="N16" s="4"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="70"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="65"/>
     </row>
     <row r="17" spans="1:30" ht="14.4">
-      <c r="A17" s="71"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="65"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="68"/>
       <c r="F17" s="9"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="65"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="68"/>
     </row>
     <row r="18" spans="1:30" ht="14.4">
       <c r="B18" t="s">
@@ -1867,7 +1869,7 @@
       <c r="V20" s="58"/>
     </row>
     <row r="21" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="77" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="57"/>
@@ -1876,18 +1878,18 @@
       <c r="F21" s="12">
         <v>0.5</v>
       </c>
-      <c r="G21" s="62" t="s">
+      <c r="G21" s="77" t="s">
         <v>27</v>
       </c>
       <c r="H21" s="58"/>
       <c r="I21" s="11">
         <v>2023</v>
       </c>
-      <c r="K21" s="68" t="s">
+      <c r="K21" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="L21" s="60"/>
-      <c r="M21" s="61"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="63"/>
       <c r="N21" s="4"/>
       <c r="O21" s="56" t="s">
         <v>29</v>
@@ -1910,9 +1912,9 @@
       <c r="G22" s="57"/>
       <c r="H22" s="58"/>
       <c r="I22" s="11"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="70"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="65"/>
       <c r="N22" s="4"/>
       <c r="O22" s="13"/>
       <c r="P22" s="14"/>
@@ -1941,15 +1943,15 @@
       <c r="J23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K23" s="69"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="70"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="65"/>
       <c r="N23" s="4"/>
       <c r="O23" s="16"/>
-      <c r="P23" s="64" t="s">
+      <c r="P23" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="Q23" s="65"/>
+      <c r="Q23" s="68"/>
       <c r="R23" s="16"/>
       <c r="S23" s="17" t="s">
         <v>33</v>
@@ -1969,9 +1971,9 @@
       <c r="G24" s="57"/>
       <c r="H24" s="58"/>
       <c r="I24" s="11"/>
-      <c r="K24" s="71"/>
+      <c r="K24" s="66"/>
       <c r="L24" s="67"/>
-      <c r="M24" s="65"/>
+      <c r="M24" s="68"/>
       <c r="N24" s="4"/>
       <c r="O24" s="18"/>
       <c r="P24" s="14"/>
@@ -1984,14 +1986,14 @@
         <v>35</v>
       </c>
       <c r="V24" s="11"/>
-      <c r="X24" s="82" t="s">
+      <c r="X24" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="Y24" s="51"/>
-      <c r="Z24" s="51"/>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="53"/>
     </row>
     <row r="25" spans="1:30" ht="15" customHeight="1">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="74" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="57"/>
@@ -1999,24 +2001,24 @@
       <c r="D25" s="20">
         <v>0.5</v>
       </c>
-      <c r="F25" s="63"/>
+      <c r="F25" s="74"/>
       <c r="G25" s="57"/>
       <c r="H25" s="58"/>
       <c r="I25" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K25" s="72"/>
+      <c r="K25" s="70"/>
       <c r="L25" s="58"/>
       <c r="M25" s="21" t="s">
         <v>38</v>
       </c>
       <c r="N25" s="4"/>
-      <c r="O25" s="66" t="s">
+      <c r="O25" s="90" t="s">
         <v>39</v>
       </c>
       <c r="P25" s="67"/>
       <c r="Q25" s="67"/>
-      <c r="R25" s="65"/>
+      <c r="R25" s="68"/>
       <c r="T25" s="11" t="s">
         <v>40</v>
       </c>
@@ -2024,18 +2026,18 @@
       <c r="V25" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="51"/>
-      <c r="Z25" s="51"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="53"/>
     </row>
     <row r="26" spans="1:30" ht="15.75" customHeight="1">
       <c r="N26" s="4"/>
       <c r="Q26" t="s">
         <v>23</v>
       </c>
-      <c r="X26" s="51"/>
-      <c r="Y26" s="51"/>
-      <c r="Z26" s="51"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="53"/>
+      <c r="Z26" s="53"/>
     </row>
     <row r="27" spans="1:30" ht="15.75" customHeight="1">
       <c r="F27" s="56" t="s">
@@ -2056,7 +2058,7 @@
       <c r="F28" s="22">
         <v>0.5</v>
       </c>
-      <c r="G28" s="72" t="s">
+      <c r="G28" s="70" t="s">
         <v>27</v>
       </c>
       <c r="H28" s="58"/>
@@ -2098,13 +2100,13 @@
       <c r="L29" s="57"/>
       <c r="M29" s="58"/>
       <c r="N29" s="4"/>
-      <c r="O29" s="62" t="s">
+      <c r="O29" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P29" s="57"/>
       <c r="Q29" s="58"/>
       <c r="R29" s="11"/>
-      <c r="T29" s="73" t="s">
+      <c r="T29" s="72" t="s">
         <v>43</v>
       </c>
       <c r="U29" s="58"/>
@@ -2193,9 +2195,9 @@
       <c r="W31" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="X31" s="59"/>
-      <c r="Y31" s="60"/>
-      <c r="Z31" s="61"/>
+      <c r="X31" s="86"/>
+      <c r="Y31" s="62"/>
+      <c r="Z31" s="63"/>
       <c r="AA31" s="17" t="s">
         <v>33</v>
       </c>
@@ -2204,7 +2206,7 @@
       <c r="AD31" s="58"/>
     </row>
     <row r="32" spans="1:30" ht="15.75" customHeight="1">
-      <c r="F32" s="63"/>
+      <c r="F32" s="74"/>
       <c r="G32" s="57"/>
       <c r="H32" s="58"/>
       <c r="I32" s="20" t="s">
@@ -2227,9 +2229,9 @@
       <c r="T32" s="56"/>
       <c r="U32" s="58"/>
       <c r="V32" s="11"/>
-      <c r="X32" s="71"/>
+      <c r="X32" s="66"/>
       <c r="Y32" s="67"/>
-      <c r="Z32" s="65"/>
+      <c r="Z32" s="68"/>
       <c r="AB32" s="11" t="s">
         <v>34</v>
       </c>
@@ -2240,18 +2242,18 @@
     </row>
     <row r="33" spans="1:30" ht="15.75" customHeight="1">
       <c r="N33" s="4"/>
-      <c r="O33" s="63"/>
+      <c r="O33" s="74"/>
       <c r="P33" s="57"/>
       <c r="Q33" s="58"/>
       <c r="R33" s="20">
         <v>0.5</v>
       </c>
-      <c r="T33" s="78">
+      <c r="T33" s="60">
         <v>0.5</v>
       </c>
       <c r="U33" s="57"/>
       <c r="V33" s="58"/>
-      <c r="X33" s="77" t="s">
+      <c r="X33" s="59" t="s">
         <v>51</v>
       </c>
       <c r="Y33" s="57"/>
@@ -2271,28 +2273,28 @@
       <c r="B34" s="57"/>
       <c r="C34" s="57"/>
       <c r="D34" s="58"/>
-      <c r="F34" s="59" t="s">
+      <c r="F34" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="61"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="63"/>
       <c r="K34" s="56"/>
       <c r="L34" s="57"/>
       <c r="M34" s="58"/>
       <c r="N34" s="4"/>
     </row>
     <row r="35" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A35" s="72" t="s">
+      <c r="A35" s="70" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="57"/>
       <c r="C35" s="58"/>
       <c r="D35" s="11"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="61"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="63"/>
       <c r="K35" s="56"/>
       <c r="L35" s="57"/>
       <c r="M35" s="58"/>
@@ -2312,16 +2314,16 @@
       <c r="AD35" s="58"/>
     </row>
     <row r="36" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A36" s="73" t="s">
+      <c r="A36" s="72" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="57"/>
       <c r="C36" s="58"/>
       <c r="D36" s="11"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="70"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="65"/>
       <c r="K36" s="56" t="s">
         <v>52</v>
       </c>
@@ -2356,12 +2358,12 @@
       <c r="E37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="69"/>
-      <c r="G37" s="79">
+      <c r="F37" s="64"/>
+      <c r="G37" s="82">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H37" s="58"/>
-      <c r="I37" s="85"/>
+      <c r="I37" s="81"/>
       <c r="J37" s="1" t="s">
         <v>31</v>
       </c>
@@ -2369,7 +2371,7 @@
       <c r="L37" s="57"/>
       <c r="M37" s="58"/>
       <c r="N37" s="4"/>
-      <c r="T37" s="73" t="s">
+      <c r="T37" s="72" t="s">
         <v>47</v>
       </c>
       <c r="U37" s="58"/>
@@ -2399,10 +2401,10 @@
       <c r="B38" s="57"/>
       <c r="C38" s="58"/>
       <c r="D38" s="11"/>
-      <c r="F38" s="71"/>
+      <c r="F38" s="66"/>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
-      <c r="I38" s="65"/>
+      <c r="I38" s="68"/>
       <c r="K38" s="11" t="s">
         <v>34</v>
       </c>
@@ -2433,7 +2435,7 @@
       <c r="AD38" s="58"/>
     </row>
     <row r="39" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A39" s="63" t="s">
+      <c r="A39" s="74" t="s">
         <v>18</v>
       </c>
       <c r="B39" s="57"/>
@@ -2441,9 +2443,9 @@
       <c r="D39" s="20">
         <v>0.5</v>
       </c>
-      <c r="F39" s="83"/>
+      <c r="F39" s="79"/>
       <c r="G39" s="67"/>
-      <c r="H39" s="65"/>
+      <c r="H39" s="68"/>
       <c r="I39" s="24" t="s">
         <v>37</v>
       </c>
@@ -2477,7 +2479,7 @@
     </row>
     <row r="40" spans="1:30" ht="15.75" customHeight="1">
       <c r="N40" s="4"/>
-      <c r="T40" s="78">
+      <c r="T40" s="60">
         <v>0.5</v>
       </c>
       <c r="U40" s="57"/>
@@ -2485,7 +2487,7 @@
       <c r="X40" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="Y40" s="77" t="s">
+      <c r="Y40" s="59" t="s">
         <v>51</v>
       </c>
       <c r="Z40" s="58"/>
@@ -2513,7 +2515,7 @@
       <c r="N41" s="4"/>
     </row>
     <row r="42" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A42" s="72" t="s">
+      <c r="A42" s="70" t="s">
         <v>9</v>
       </c>
       <c r="B42" s="57"/>
@@ -2546,14 +2548,14 @@
       <c r="B43" s="57"/>
       <c r="C43" s="58"/>
       <c r="D43" s="11"/>
-      <c r="F43" s="86" t="s">
+      <c r="F43" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="G43" s="61"/>
-      <c r="H43" s="68" t="s">
+      <c r="G43" s="63"/>
+      <c r="H43" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="I43" s="61"/>
+      <c r="I43" s="63"/>
       <c r="N43" s="4"/>
       <c r="X43" s="11" t="s">
         <v>61</v>
@@ -2569,7 +2571,7 @@
       <c r="AD43" s="58"/>
     </row>
     <row r="44" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A44" s="73" t="s">
+      <c r="A44" s="72" t="s">
         <v>11</v>
       </c>
       <c r="B44" s="57"/>
@@ -2578,10 +2580,10 @@
       <c r="E44" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F44" s="71"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="65"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="68"/>
       <c r="J44" s="1"/>
       <c r="N44" s="4"/>
       <c r="X44" s="11"/>
@@ -2616,7 +2618,7 @@
       <c r="AD45" s="58"/>
     </row>
     <row r="46" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A46" s="63" t="s">
+      <c r="A46" s="74" t="s">
         <v>18</v>
       </c>
       <c r="B46" s="57"/>
@@ -2624,7 +2626,7 @@
       <c r="D46" s="20">
         <v>0.5</v>
       </c>
-      <c r="F46" s="63" t="s">
+      <c r="F46" s="74" t="s">
         <v>18</v>
       </c>
       <c r="G46" s="57"/>
@@ -2649,7 +2651,7 @@
       <c r="X47" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="Y47" s="77" t="s">
+      <c r="Y47" s="59" t="s">
         <v>51</v>
       </c>
       <c r="Z47" s="58"/>
@@ -2755,7 +2757,7 @@
       <c r="Z51" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="AB51" s="73" t="s">
+      <c r="AB51" s="72" t="s">
         <v>67</v>
       </c>
       <c r="AC51" s="57"/>
@@ -2776,7 +2778,7 @@
     </row>
     <row r="52" spans="1:39" ht="15.75" customHeight="1">
       <c r="N52" s="4"/>
-      <c r="S52" s="73" t="s">
+      <c r="S52" s="72" t="s">
         <v>49</v>
       </c>
       <c r="T52" s="58"/>
@@ -2863,7 +2865,7 @@
         <v>56</v>
       </c>
       <c r="X54" s="58"/>
-      <c r="Y54" s="77" t="s">
+      <c r="Y54" s="59" t="s">
         <v>51</v>
       </c>
       <c r="Z54" s="58"/>
@@ -2871,7 +2873,7 @@
         <v>56</v>
       </c>
       <c r="AG54" s="58"/>
-      <c r="AH54" s="77" t="s">
+      <c r="AH54" s="59" t="s">
         <v>51</v>
       </c>
       <c r="AI54" s="58"/>
@@ -2904,11 +2906,11 @@
         <v>5</v>
       </c>
       <c r="Z56" s="28"/>
-      <c r="AB56" s="81" t="s">
+      <c r="AB56" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="AC56" s="51"/>
-      <c r="AD56" s="51"/>
+      <c r="AC56" s="53"/>
+      <c r="AD56" s="53"/>
       <c r="AF56" s="11" t="s">
         <v>62</v>
       </c>
@@ -2930,9 +2932,9 @@
       <c r="Z57" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="AB57" s="51"/>
-      <c r="AC57" s="51"/>
-      <c r="AD57" s="51"/>
+      <c r="AB57" s="53"/>
+      <c r="AC57" s="53"/>
+      <c r="AD57" s="53"/>
       <c r="AF57" s="11">
         <v>1</v>
       </c>
@@ -2956,9 +2958,9 @@
       <c r="Z58" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="AB58" s="51"/>
-      <c r="AC58" s="51"/>
-      <c r="AD58" s="51"/>
+      <c r="AB58" s="53"/>
+      <c r="AC58" s="53"/>
+      <c r="AD58" s="53"/>
       <c r="AF58" s="11">
         <v>2</v>
       </c>
@@ -3030,7 +3032,7 @@
         <v>56</v>
       </c>
       <c r="X61" s="58"/>
-      <c r="Y61" s="77" t="s">
+      <c r="Y61" s="59" t="s">
         <v>51</v>
       </c>
       <c r="Z61" s="58"/>
@@ -3041,7 +3043,7 @@
         <v>56</v>
       </c>
       <c r="AG61" s="58"/>
-      <c r="AH61" s="77" t="s">
+      <c r="AH61" s="59" t="s">
         <v>51</v>
       </c>
       <c r="AI61" s="58"/>
@@ -3083,7 +3085,7 @@
       <c r="AI63" s="28"/>
     </row>
     <row r="64" spans="1:39" ht="15.75" customHeight="1">
-      <c r="A64" s="72" t="s">
+      <c r="A64" s="70" t="s">
         <v>9</v>
       </c>
       <c r="B64" s="57"/>
@@ -3138,7 +3140,7 @@
       <c r="L65" s="26"/>
       <c r="M65" s="26"/>
       <c r="N65" s="4"/>
-      <c r="O65" s="72" t="s">
+      <c r="O65" s="70" t="s">
         <v>42</v>
       </c>
       <c r="P65" s="57"/>
@@ -3183,7 +3185,7 @@
       <c r="L66" s="26"/>
       <c r="M66" s="26"/>
       <c r="N66" s="4"/>
-      <c r="O66" s="73" t="s">
+      <c r="O66" s="72" t="s">
         <v>46</v>
       </c>
       <c r="P66" s="57"/>
@@ -3208,7 +3210,7 @@
       </c>
     </row>
     <row r="67" spans="1:35" ht="15.75" customHeight="1">
-      <c r="A67" s="73" t="s">
+      <c r="A67" s="72" t="s">
         <v>12</v>
       </c>
       <c r="B67" s="57"/>
@@ -3251,7 +3253,7 @@
       </c>
     </row>
     <row r="68" spans="1:35" ht="15.75" customHeight="1">
-      <c r="A68" s="63" t="s">
+      <c r="A68" s="74" t="s">
         <v>18</v>
       </c>
       <c r="B68" s="57"/>
@@ -3283,20 +3285,20 @@
         <v>56</v>
       </c>
       <c r="AG68" s="58"/>
-      <c r="AH68" s="77" t="s">
+      <c r="AH68" s="59" t="s">
         <v>51</v>
       </c>
       <c r="AI68" s="58"/>
     </row>
     <row r="69" spans="1:35" ht="15.75" customHeight="1">
       <c r="N69" s="4"/>
-      <c r="O69" s="63"/>
+      <c r="O69" s="74"/>
       <c r="P69" s="57"/>
       <c r="Q69" s="58"/>
       <c r="R69" s="20">
         <v>0.5</v>
       </c>
-      <c r="T69" s="78">
+      <c r="T69" s="60">
         <v>0.5</v>
       </c>
       <c r="U69" s="57"/>
@@ -3321,7 +3323,7 @@
       <c r="N70" s="4"/>
     </row>
     <row r="71" spans="1:35" ht="15.75" customHeight="1">
-      <c r="A71" s="62" t="s">
+      <c r="A71" s="77" t="s">
         <v>76</v>
       </c>
       <c r="B71" s="57"/>
@@ -3369,7 +3371,7 @@
       <c r="L72" s="57"/>
       <c r="M72" s="58"/>
       <c r="N72" s="4"/>
-      <c r="O72" s="72" t="s">
+      <c r="O72" s="70" t="s">
         <v>77</v>
       </c>
       <c r="P72" s="57"/>
@@ -3430,7 +3432,7 @@
       </c>
       <c r="M74" s="11"/>
       <c r="N74" s="4"/>
-      <c r="O74" s="73" t="s">
+      <c r="O74" s="72" t="s">
         <v>10</v>
       </c>
       <c r="P74" s="57"/>
@@ -3439,7 +3441,7 @@
       <c r="S74" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="T74" s="79">
+      <c r="T74" s="82">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="U74" s="57"/>
@@ -3452,7 +3454,7 @@
       <c r="Z74" s="58"/>
     </row>
     <row r="75" spans="1:35" ht="15.75" customHeight="1">
-      <c r="A75" s="63" t="s">
+      <c r="A75" s="74" t="s">
         <v>18</v>
       </c>
       <c r="B75" s="57"/>
@@ -3460,7 +3462,7 @@
       <c r="D75" s="20">
         <v>0.5</v>
       </c>
-      <c r="F75" s="63" t="s">
+      <c r="F75" s="74" t="s">
         <v>18</v>
       </c>
       <c r="G75" s="57"/>
@@ -3495,7 +3497,7 @@
     </row>
     <row r="76" spans="1:35" ht="15.75" customHeight="1">
       <c r="N76" s="4"/>
-      <c r="O76" s="63"/>
+      <c r="O76" s="74"/>
       <c r="P76" s="57"/>
       <c r="Q76" s="58"/>
       <c r="R76" s="20">
@@ -3536,7 +3538,7 @@
     </row>
     <row r="79" spans="1:35" ht="15.75" customHeight="1">
       <c r="N79" s="4"/>
-      <c r="O79" s="72" t="s">
+      <c r="O79" s="70" t="s">
         <v>77</v>
       </c>
       <c r="P79" s="57"/>
@@ -3593,7 +3595,7 @@
     </row>
     <row r="82" spans="14:26" ht="15.75" customHeight="1">
       <c r="N82" s="4"/>
-      <c r="O82" s="73" t="s">
+      <c r="O82" s="72" t="s">
         <v>50</v>
       </c>
       <c r="P82" s="57"/>
@@ -3612,7 +3614,7 @@
     </row>
     <row r="83" spans="14:26" ht="15.75" customHeight="1">
       <c r="N83" s="4"/>
-      <c r="O83" s="63"/>
+      <c r="O83" s="74"/>
       <c r="P83" s="57"/>
       <c r="Q83" s="58"/>
       <c r="R83" s="20">
@@ -3668,7 +3670,7 @@
     </row>
     <row r="87" spans="14:26" ht="15.75" customHeight="1">
       <c r="N87" s="4"/>
-      <c r="O87" s="73" t="s">
+      <c r="O87" s="72" t="s">
         <v>78</v>
       </c>
       <c r="P87" s="57"/>
@@ -3729,7 +3731,7 @@
     </row>
     <row r="90" spans="14:26" ht="15.75" customHeight="1">
       <c r="N90" s="4"/>
-      <c r="O90" s="63"/>
+      <c r="O90" s="74"/>
       <c r="P90" s="57"/>
       <c r="Q90" s="58"/>
       <c r="R90" s="20">
@@ -3764,9 +3766,9 @@
       </c>
       <c r="U92" s="57"/>
       <c r="V92" s="58"/>
-      <c r="X92" s="50"/>
-      <c r="Y92" s="51"/>
-      <c r="Z92" s="51"/>
+      <c r="X92" s="54"/>
+      <c r="Y92" s="53"/>
+      <c r="Z92" s="53"/>
     </row>
     <row r="93" spans="14:26" ht="15.75" customHeight="1">
       <c r="N93" s="4"/>
@@ -3776,14 +3778,14 @@
       <c r="P93" s="57"/>
       <c r="Q93" s="58"/>
       <c r="R93" s="11"/>
-      <c r="T93" s="90" t="s">
+      <c r="T93" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="U93" s="60"/>
-      <c r="V93" s="61"/>
-      <c r="X93" s="88"/>
-      <c r="Y93" s="51"/>
-      <c r="Z93" s="51"/>
+      <c r="U93" s="62"/>
+      <c r="V93" s="63"/>
+      <c r="X93" s="76"/>
+      <c r="Y93" s="53"/>
+      <c r="Z93" s="53"/>
     </row>
     <row r="94" spans="14:26" ht="15.75" customHeight="1">
       <c r="N94" s="4"/>
@@ -3793,16 +3795,16 @@
       <c r="P94" s="57"/>
       <c r="Q94" s="58"/>
       <c r="R94" s="11"/>
-      <c r="T94" s="71"/>
+      <c r="T94" s="66"/>
       <c r="U94" s="67"/>
-      <c r="V94" s="65"/>
-      <c r="X94" s="51"/>
-      <c r="Y94" s="51"/>
-      <c r="Z94" s="51"/>
+      <c r="V94" s="68"/>
+      <c r="X94" s="53"/>
+      <c r="Y94" s="53"/>
+      <c r="Z94" s="53"/>
     </row>
     <row r="95" spans="14:26" ht="15.75" customHeight="1">
       <c r="N95" s="4"/>
-      <c r="O95" s="73" t="s">
+      <c r="O95" s="72" t="s">
         <v>79</v>
       </c>
       <c r="P95" s="57"/>
@@ -3811,7 +3813,7 @@
       <c r="S95" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="T95" s="72" t="s">
+      <c r="T95" s="70" t="s">
         <v>27</v>
       </c>
       <c r="U95" s="58"/>
@@ -3819,9 +3821,9 @@
         <v>2023</v>
       </c>
       <c r="W95" s="1"/>
-      <c r="X95" s="51"/>
-      <c r="Y95" s="51"/>
-      <c r="Z95" s="51"/>
+      <c r="X95" s="53"/>
+      <c r="Y95" s="53"/>
+      <c r="Z95" s="53"/>
     </row>
     <row r="96" spans="14:26" ht="15.75" customHeight="1">
       <c r="N96" s="4"/>
@@ -3831,23 +3833,23 @@
       <c r="P96" s="57"/>
       <c r="Q96" s="58"/>
       <c r="R96" s="11"/>
-      <c r="T96" s="80" t="s">
+      <c r="T96" s="71" t="s">
         <v>82</v>
       </c>
       <c r="U96" s="58"/>
       <c r="V96" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="X96" s="51"/>
-      <c r="Y96" s="51"/>
-      <c r="Z96" s="51"/>
+      <c r="X96" s="53"/>
+      <c r="Y96" s="53"/>
+      <c r="Z96" s="53"/>
     </row>
     <row r="97" spans="8:26" ht="15.75" customHeight="1">
-      <c r="H97" s="87"/>
-      <c r="I97" s="60"/>
-      <c r="J97" s="61"/>
+      <c r="H97" s="75"/>
+      <c r="I97" s="62"/>
+      <c r="J97" s="63"/>
       <c r="N97" s="4"/>
-      <c r="O97" s="63"/>
+      <c r="O97" s="74"/>
       <c r="P97" s="57"/>
       <c r="Q97" s="58"/>
       <c r="R97" s="20">
@@ -3858,14 +3860,14 @@
       <c r="V97" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="X97" s="88"/>
-      <c r="Y97" s="51"/>
+      <c r="X97" s="76"/>
+      <c r="Y97" s="53"/>
       <c r="Z97" s="40"/>
     </row>
     <row r="98" spans="8:26" ht="15.75" customHeight="1">
-      <c r="H98" s="69"/>
-      <c r="I98" s="51"/>
-      <c r="J98" s="70"/>
+      <c r="H98" s="64"/>
+      <c r="I98" s="53"/>
+      <c r="J98" s="65"/>
       <c r="N98" s="4"/>
     </row>
     <row r="99" spans="8:26" ht="15.75" customHeight="1">
@@ -3889,35 +3891,35 @@
       <c r="I100" s="11"/>
       <c r="J100" s="11"/>
       <c r="N100" s="4"/>
-      <c r="T100" s="90" t="s">
+      <c r="T100" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="U100" s="60"/>
-      <c r="V100" s="61"/>
-      <c r="X100" s="68" t="s">
+      <c r="U100" s="62"/>
+      <c r="V100" s="63"/>
+      <c r="X100" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="Y100" s="60"/>
-      <c r="Z100" s="61"/>
+      <c r="Y100" s="62"/>
+      <c r="Z100" s="63"/>
     </row>
     <row r="101" spans="8:26" ht="15.75" customHeight="1">
       <c r="H101" s="21"/>
       <c r="I101" s="11"/>
       <c r="J101" s="11"/>
       <c r="N101" s="4"/>
-      <c r="T101" s="71"/>
+      <c r="T101" s="66"/>
       <c r="U101" s="67"/>
-      <c r="V101" s="65"/>
-      <c r="X101" s="69"/>
-      <c r="Y101" s="51"/>
-      <c r="Z101" s="70"/>
+      <c r="V101" s="68"/>
+      <c r="X101" s="64"/>
+      <c r="Y101" s="53"/>
+      <c r="Z101" s="65"/>
     </row>
     <row r="102" spans="8:26" ht="15.75" customHeight="1">
       <c r="H102" s="47"/>
       <c r="I102" s="47"/>
       <c r="J102" s="24"/>
       <c r="N102" s="4"/>
-      <c r="T102" s="72" t="s">
+      <c r="T102" s="70" t="s">
         <v>27</v>
       </c>
       <c r="U102" s="58"/>
@@ -3927,22 +3929,22 @@
       <c r="W102" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="X102" s="69"/>
-      <c r="Y102" s="51"/>
-      <c r="Z102" s="70"/>
+      <c r="X102" s="64"/>
+      <c r="Y102" s="53"/>
+      <c r="Z102" s="65"/>
     </row>
     <row r="103" spans="8:26" ht="15.75" customHeight="1">
       <c r="N103" s="4"/>
-      <c r="T103" s="80" t="s">
+      <c r="T103" s="71" t="s">
         <v>82</v>
       </c>
       <c r="U103" s="58"/>
       <c r="V103" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="X103" s="71"/>
+      <c r="X103" s="66"/>
       <c r="Y103" s="67"/>
-      <c r="Z103" s="65"/>
+      <c r="Z103" s="68"/>
     </row>
     <row r="104" spans="8:26" ht="15.75" customHeight="1">
       <c r="N104" s="4"/>
@@ -3951,7 +3953,7 @@
       <c r="V104" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="X104" s="72"/>
+      <c r="X104" s="70"/>
       <c r="Y104" s="58"/>
       <c r="Z104" s="21" t="s">
         <v>38</v>
@@ -4021,7 +4023,7 @@
     </row>
     <row r="110" spans="8:26" ht="15.75" customHeight="1">
       <c r="N110" s="4"/>
-      <c r="O110" s="73" t="s">
+      <c r="O110" s="72" t="s">
         <v>20</v>
       </c>
       <c r="P110" s="57"/>
@@ -4033,13 +4035,13 @@
     </row>
     <row r="111" spans="8:26" ht="15.75" customHeight="1">
       <c r="N111" s="4"/>
-      <c r="O111" s="63"/>
+      <c r="O111" s="74"/>
       <c r="P111" s="57"/>
       <c r="Q111" s="58"/>
       <c r="R111" s="20">
         <v>0.5</v>
       </c>
-      <c r="T111" s="78">
+      <c r="T111" s="60">
         <v>0.5</v>
       </c>
       <c r="U111" s="57"/>
@@ -4058,33 +4060,33 @@
     </row>
     <row r="114" spans="14:22" ht="15.75" customHeight="1">
       <c r="N114" s="4"/>
-      <c r="T114" s="89" t="s">
+      <c r="T114" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="U114" s="60"/>
-      <c r="V114" s="61"/>
+      <c r="U114" s="62"/>
+      <c r="V114" s="63"/>
     </row>
     <row r="115" spans="14:22" ht="15.75" customHeight="1">
       <c r="N115" s="4"/>
-      <c r="T115" s="69"/>
-      <c r="U115" s="51"/>
-      <c r="V115" s="70"/>
+      <c r="T115" s="64"/>
+      <c r="U115" s="53"/>
+      <c r="V115" s="65"/>
     </row>
     <row r="116" spans="14:22" ht="15.75" customHeight="1">
       <c r="N116" s="4"/>
-      <c r="T116" s="69"/>
-      <c r="U116" s="51"/>
-      <c r="V116" s="70"/>
+      <c r="T116" s="64"/>
+      <c r="U116" s="53"/>
+      <c r="V116" s="65"/>
     </row>
     <row r="117" spans="14:22" ht="15.75" customHeight="1">
       <c r="N117" s="4"/>
-      <c r="T117" s="71"/>
+      <c r="T117" s="66"/>
       <c r="U117" s="67"/>
-      <c r="V117" s="65"/>
+      <c r="V117" s="68"/>
     </row>
     <row r="118" spans="14:22" ht="15.75" customHeight="1">
       <c r="N118" s="4"/>
-      <c r="T118" s="78">
+      <c r="T118" s="60">
         <v>0.5</v>
       </c>
       <c r="U118" s="57"/>
@@ -4092,148 +4094,66 @@
     </row>
   </sheetData>
   <mergeCells count="234">
-    <mergeCell ref="AB45:AD45"/>
-    <mergeCell ref="AK49:AM49"/>
-    <mergeCell ref="AK50:AM50"/>
-    <mergeCell ref="AK51:AM51"/>
-    <mergeCell ref="AK52:AM52"/>
-    <mergeCell ref="AH54:AI54"/>
-    <mergeCell ref="T113:V113"/>
-    <mergeCell ref="T118:V118"/>
-    <mergeCell ref="T114:V117"/>
-    <mergeCell ref="T100:V101"/>
-    <mergeCell ref="T102:U102"/>
-    <mergeCell ref="T103:U103"/>
-    <mergeCell ref="O95:Q95"/>
-    <mergeCell ref="O96:Q96"/>
-    <mergeCell ref="X85:Z85"/>
-    <mergeCell ref="X86:Z86"/>
-    <mergeCell ref="X87:Z87"/>
-    <mergeCell ref="X88:Z88"/>
-    <mergeCell ref="O88:Q88"/>
-    <mergeCell ref="O85:R85"/>
-    <mergeCell ref="X100:Z103"/>
-    <mergeCell ref="X104:Y104"/>
-    <mergeCell ref="T92:V92"/>
-    <mergeCell ref="T93:V94"/>
-    <mergeCell ref="O111:Q111"/>
-    <mergeCell ref="O106:R106"/>
-    <mergeCell ref="O107:Q107"/>
-    <mergeCell ref="O108:Q108"/>
-    <mergeCell ref="O109:Q109"/>
-    <mergeCell ref="O110:Q110"/>
-    <mergeCell ref="H97:J98"/>
-    <mergeCell ref="X92:Z92"/>
-    <mergeCell ref="X93:Z96"/>
-    <mergeCell ref="X97:Y97"/>
-    <mergeCell ref="O97:Q97"/>
-    <mergeCell ref="T111:V111"/>
-    <mergeCell ref="X99:Z99"/>
-    <mergeCell ref="T99:V99"/>
-    <mergeCell ref="T106:V106"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="F43:G44"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="H43:I44"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="T96:U96"/>
-    <mergeCell ref="O9:AD9"/>
-    <mergeCell ref="AB56:AD58"/>
-    <mergeCell ref="O92:R92"/>
-    <mergeCell ref="O93:Q93"/>
-    <mergeCell ref="O94:Q94"/>
-    <mergeCell ref="X81:Z81"/>
-    <mergeCell ref="X24:Z26"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="F75:H75"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="K70:M70"/>
-    <mergeCell ref="AB42:AD42"/>
-    <mergeCell ref="AB43:AD43"/>
-    <mergeCell ref="AB44:AD44"/>
-    <mergeCell ref="AF54:AG54"/>
-    <mergeCell ref="AF61:AG61"/>
-    <mergeCell ref="AH61:AI61"/>
-    <mergeCell ref="T95:U95"/>
-    <mergeCell ref="T85:V85"/>
-    <mergeCell ref="O90:Q90"/>
-    <mergeCell ref="O89:Q89"/>
-    <mergeCell ref="O86:Q86"/>
-    <mergeCell ref="O83:Q83"/>
-    <mergeCell ref="X71:Z71"/>
-    <mergeCell ref="X72:Z72"/>
-    <mergeCell ref="X73:Z73"/>
-    <mergeCell ref="X74:Z74"/>
-    <mergeCell ref="T78:V78"/>
-    <mergeCell ref="X78:Z78"/>
-    <mergeCell ref="X79:Z79"/>
-    <mergeCell ref="X80:Z80"/>
-    <mergeCell ref="AF68:AG68"/>
-    <mergeCell ref="AH68:AI68"/>
-    <mergeCell ref="O76:Q76"/>
-    <mergeCell ref="O75:Q75"/>
-    <mergeCell ref="T74:V74"/>
-    <mergeCell ref="O71:R71"/>
-    <mergeCell ref="O72:Q72"/>
-    <mergeCell ref="O73:Q73"/>
-    <mergeCell ref="O74:Q74"/>
-    <mergeCell ref="X28:Z28"/>
-    <mergeCell ref="X31:Z32"/>
-    <mergeCell ref="X33:Z33"/>
-    <mergeCell ref="AB28:AD28"/>
-    <mergeCell ref="AB29:AD29"/>
-    <mergeCell ref="AB30:AD30"/>
-    <mergeCell ref="AB31:AD31"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="A1:D5"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="C15:D17"/>
+    <mergeCell ref="A15:B17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="O15:P17"/>
+    <mergeCell ref="Q15:R17"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="K21:M24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="G35:I36"/>
+    <mergeCell ref="O87:Q87"/>
+    <mergeCell ref="O78:R78"/>
+    <mergeCell ref="O79:Q79"/>
+    <mergeCell ref="O80:Q80"/>
+    <mergeCell ref="O81:Q81"/>
+    <mergeCell ref="O82:Q82"/>
+    <mergeCell ref="T64:V64"/>
+    <mergeCell ref="O64:R64"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="T71:V71"/>
+    <mergeCell ref="O69:Q69"/>
+    <mergeCell ref="T65:U65"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="T69:V69"/>
+    <mergeCell ref="O68:Q68"/>
+    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="O65:Q65"/>
+    <mergeCell ref="O66:Q66"/>
     <mergeCell ref="X42:Z42"/>
     <mergeCell ref="Y47:Z47"/>
     <mergeCell ref="S49:U49"/>
@@ -4258,74 +4178,156 @@
     <mergeCell ref="T36:U36"/>
     <mergeCell ref="T37:U37"/>
     <mergeCell ref="T38:U38"/>
-    <mergeCell ref="W61:X61"/>
-    <mergeCell ref="Y61:Z61"/>
-    <mergeCell ref="O69:Q69"/>
-    <mergeCell ref="T65:U65"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="T69:V69"/>
-    <mergeCell ref="O68:Q68"/>
-    <mergeCell ref="O67:Q67"/>
-    <mergeCell ref="O65:Q65"/>
-    <mergeCell ref="O66:Q66"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="G35:I36"/>
-    <mergeCell ref="O87:Q87"/>
-    <mergeCell ref="O78:R78"/>
-    <mergeCell ref="O79:Q79"/>
-    <mergeCell ref="O80:Q80"/>
-    <mergeCell ref="O81:Q81"/>
-    <mergeCell ref="O82:Q82"/>
-    <mergeCell ref="T64:V64"/>
-    <mergeCell ref="O64:R64"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="T71:V71"/>
+    <mergeCell ref="X28:Z28"/>
+    <mergeCell ref="X31:Z32"/>
+    <mergeCell ref="X33:Z33"/>
+    <mergeCell ref="AB28:AD28"/>
+    <mergeCell ref="AB29:AD29"/>
+    <mergeCell ref="AB30:AD30"/>
+    <mergeCell ref="AB31:AD31"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="O83:Q83"/>
+    <mergeCell ref="X71:Z71"/>
+    <mergeCell ref="X72:Z72"/>
+    <mergeCell ref="X73:Z73"/>
+    <mergeCell ref="X74:Z74"/>
+    <mergeCell ref="T78:V78"/>
+    <mergeCell ref="X78:Z78"/>
+    <mergeCell ref="X79:Z79"/>
+    <mergeCell ref="X80:Z80"/>
+    <mergeCell ref="O76:Q76"/>
+    <mergeCell ref="O75:Q75"/>
+    <mergeCell ref="T74:V74"/>
+    <mergeCell ref="O71:R71"/>
+    <mergeCell ref="O72:Q72"/>
+    <mergeCell ref="O73:Q73"/>
+    <mergeCell ref="O74:Q74"/>
+    <mergeCell ref="O9:AD9"/>
+    <mergeCell ref="AB56:AD58"/>
+    <mergeCell ref="O92:R92"/>
+    <mergeCell ref="O93:Q93"/>
+    <mergeCell ref="O94:Q94"/>
+    <mergeCell ref="X81:Z81"/>
+    <mergeCell ref="X24:Z26"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="AB42:AD42"/>
+    <mergeCell ref="AB43:AD43"/>
+    <mergeCell ref="AB44:AD44"/>
+    <mergeCell ref="T85:V85"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="F25:H25"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="A1:D5"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="C15:D17"/>
-    <mergeCell ref="A15:B17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="O15:P17"/>
-    <mergeCell ref="Q15:R17"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="K21:M24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="F43:G44"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="H43:I44"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="O111:Q111"/>
+    <mergeCell ref="O106:R106"/>
+    <mergeCell ref="O107:Q107"/>
+    <mergeCell ref="O108:Q108"/>
+    <mergeCell ref="O109:Q109"/>
+    <mergeCell ref="O110:Q110"/>
+    <mergeCell ref="H97:J98"/>
+    <mergeCell ref="X92:Z92"/>
+    <mergeCell ref="X93:Z96"/>
+    <mergeCell ref="X97:Y97"/>
+    <mergeCell ref="O97:Q97"/>
+    <mergeCell ref="T111:V111"/>
+    <mergeCell ref="X99:Z99"/>
+    <mergeCell ref="T99:V99"/>
+    <mergeCell ref="T106:V106"/>
+    <mergeCell ref="T96:U96"/>
+    <mergeCell ref="T95:U95"/>
+    <mergeCell ref="O95:Q95"/>
+    <mergeCell ref="O96:Q96"/>
+    <mergeCell ref="X85:Z85"/>
+    <mergeCell ref="X86:Z86"/>
+    <mergeCell ref="X87:Z87"/>
+    <mergeCell ref="X88:Z88"/>
+    <mergeCell ref="O88:Q88"/>
+    <mergeCell ref="O85:R85"/>
+    <mergeCell ref="X100:Z103"/>
+    <mergeCell ref="T92:V92"/>
+    <mergeCell ref="T93:V94"/>
+    <mergeCell ref="O90:Q90"/>
+    <mergeCell ref="O89:Q89"/>
+    <mergeCell ref="O86:Q86"/>
+    <mergeCell ref="AB45:AD45"/>
+    <mergeCell ref="AK49:AM49"/>
+    <mergeCell ref="AK50:AM50"/>
+    <mergeCell ref="AK51:AM51"/>
+    <mergeCell ref="AK52:AM52"/>
+    <mergeCell ref="AH54:AI54"/>
+    <mergeCell ref="T113:V113"/>
+    <mergeCell ref="T118:V118"/>
+    <mergeCell ref="T114:V117"/>
+    <mergeCell ref="T100:V101"/>
+    <mergeCell ref="T102:U102"/>
+    <mergeCell ref="T103:U103"/>
+    <mergeCell ref="X104:Y104"/>
+    <mergeCell ref="AF54:AG54"/>
+    <mergeCell ref="AF61:AG61"/>
+    <mergeCell ref="AH61:AI61"/>
+    <mergeCell ref="AF68:AG68"/>
+    <mergeCell ref="AH68:AI68"/>
+    <mergeCell ref="W61:X61"/>
+    <mergeCell ref="Y61:Z61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
